--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -414,14 +414,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mai hồng nương</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -687,7 +850,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="26">
@@ -777,17 +940,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,11 +525,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Thu cánh mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -538,38 +538,60 @@
         <v/>
       </c>
       <c r="K2" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="L2" t="n">
         <v>6000000</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="N2" t="n">
-        <v>600000</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mai hồng nương</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>8000000</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v/>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="K3" t="n">
         <v>8000000</v>
@@ -578,10 +600,44 @@
         <v>6000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1380000</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +906,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>600000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="26">
@@ -940,7 +996,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="35">
@@ -950,7 +1006,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>600000</v>
+        <v>1380000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,35 +610,147 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>627</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tạ duy hoàng </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>628</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nguyễn thị lệ trang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1380000</v>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2560000</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +775,308 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-611</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ngọc hân</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U2" t="n">
+        <v>160000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>160000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -762,7 +1177,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -772,7 +1187,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -782,7 +1197,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -792,27 +1207,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -822,7 +1237,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,7 +1247,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -842,7 +1257,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -852,7 +1267,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -862,7 +1277,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -872,7 +1287,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -882,7 +1297,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -892,47 +1307,47 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1380000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2571428.571428571</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2560000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -942,7 +1357,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -952,7 +1367,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -962,7 +1377,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -972,7 +1387,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -982,31 +1397,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1380000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5571428.571428571</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1380000</v>
+      <c r="B38" t="n">
+        <v>5571428.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-02-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,35 +724,205 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>649</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>H-Sa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>668</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>669</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2560000</v>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>81000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>79000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9920000</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,27 +952,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Ngày thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -810,189 +982,95 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Chiết khấu bác sĩ 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8000000</v>
+        <v>673</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-611</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ngọc hân</t>
-        </is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v/>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1500000</v>
       </c>
       <c r="K2" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+        <v>1500000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500000</v>
       </c>
       <c r="M2" t="n">
-        <v>8000000</v>
+        <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U2" t="n">
-        <v>160000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1005,53 +1083,28 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>8000000</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1500000</v>
+      </c>
       <c r="K3" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>1500000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500000</v>
+      </c>
       <c r="M3" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>160000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,6 +1114,586 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>673</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-611</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ngọc hân</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U2" t="n">
+        <v>160000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-557</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" t="n">
+        <v>450000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>78000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>78000000</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>450000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>160000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1121,7 +1754,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1660000</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1814,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="12">
@@ -1191,7 +1824,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -1231,7 +1864,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="17">
@@ -1301,7 +1934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -1311,7 +1944,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1954,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="26">
@@ -1331,7 +1964,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2571428.571428571</v>
+        <v>3857142.857142857</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +2004,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="31">
@@ -1411,7 +2044,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1100000</v>
       </c>
     </row>
     <row r="35">
@@ -1421,7 +2054,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2110000</v>
       </c>
     </row>
     <row r="36">
@@ -1431,7 +2064,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="37">
@@ -1441,7 +2074,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5571428.571428571</v>
+        <v>5987142.857142857</v>
       </c>
     </row>
     <row r="38">
@@ -1451,7 +2084,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5571428.571428571</v>
+        <v>13797142.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -9,9 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,35 +893,259 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>677</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>678</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>679</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>lý thị thuý vi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>680</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">triệu tú kiều </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>75000000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>105000000</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>6000000</v>
       </c>
-      <c r="K9" t="n">
-        <v>81000000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>79000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9920000</v>
+      <c r="K13" t="n">
+        <v>111000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14020000</v>
       </c>
     </row>
   </sheetData>
@@ -1119,189 +1342,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>673</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>08-23-2024</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>thạch thị siêu</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Phun mày</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v/>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1974,7 +2014,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2560000</v>
+        <v>6660000</v>
       </c>
     </row>
     <row r="28">
@@ -2004,7 +2044,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2044,7 +2084,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1100000</v>
+        <v>-11100000</v>
       </c>
     </row>
     <row r="35">
@@ -2074,7 +2114,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5987142.857142857</v>
+        <v>-2857.142857141793</v>
       </c>
     </row>
     <row r="38">
@@ -2084,7 +2124,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13797142.85714286</v>
+        <v>7807142.857142858</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,35 +1117,93 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>686</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>105000000</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>111000000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>109000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>14020000</v>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>115000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>113000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14260000</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1852,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="6">
@@ -1984,7 +2042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1994,7 +2052,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="26">
@@ -2004,7 +2062,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3857142.857142857</v>
+        <v>8035714.285714285</v>
       </c>
     </row>
     <row r="27">
@@ -2094,7 +2152,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2110000</v>
+        <v>2350000</v>
       </c>
     </row>
     <row r="36">
@@ -2114,7 +2172,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2857.142857141793</v>
+        <v>4630714.285714285</v>
       </c>
     </row>
     <row r="38">
@@ -2124,7 +2182,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7807142.857142858</v>
+        <v>12680714.28571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,35 +1175,149 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>695</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>696</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nguyễn thanh tuyền</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>105000000</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>115000000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>113000000</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14260000</v>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>120000000</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>133000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>131000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15940000</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1966,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1900000</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="6">
@@ -2042,7 +2156,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -2052,7 +2166,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>875000</v>
+        <v>945000</v>
       </c>
     </row>
     <row r="26">
@@ -2062,7 +2176,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8035714.285714285</v>
+        <v>8678571.428571429</v>
       </c>
     </row>
     <row r="27">
@@ -2072,7 +2186,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6660000</v>
+        <v>8160000</v>
       </c>
     </row>
     <row r="28">
@@ -2142,7 +2256,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-11100000</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="35">
@@ -2152,7 +2266,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2350000</v>
+        <v>2530000</v>
       </c>
     </row>
     <row r="36">
@@ -2172,7 +2286,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4630714.285714285</v>
+        <v>7943571.428571429</v>
       </c>
     </row>
     <row r="38">
@@ -2182,7 +2296,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12680714.28571429</v>
+        <v>16173571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -1466,7 +1466,7 @@
         <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="26">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8678571.428571429</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="27">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7943571.428571429</v>
+        <v>8330000</v>
       </c>
     </row>
     <row r="38">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16173571.42857143</v>
+        <v>16560000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 8-2024.xlsx
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>980000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="26">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9000000</v>
+        <v>9642857.142857142</v>
       </c>
     </row>
     <row r="27">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8330000</v>
+        <v>9042857.142857142</v>
       </c>
     </row>
     <row r="38">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16560000</v>
+        <v>17272857.14285714</v>
       </c>
     </row>
   </sheetData>
